--- a/F&H data set.xlsx
+++ b/F&H data set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcanc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2B8C4D-12D7-4042-BF61-8CDA1C990B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C5D723-AFC4-4ACA-A0C5-371C4853D9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{EC51486D-DBA4-4467-B96C-62A57A209FF4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="193">
   <si>
     <t>Jaggedjaw</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>parasires, brain flower</t>
+  </si>
+  <si>
+    <t>RNG, Guarantee</t>
+  </si>
+  <si>
+    <t>UsefulnessScore</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1088,8 @@
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="71" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="P95" sqref="P95"/>
+    <sheetView tabSelected="1" topLeftCell="K77" zoomScale="94" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="W88" sqref="W88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2733,59 +2739,59 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N73">
-        <f>SUM(N2:N71)</f>
+        <f t="shared" ref="N73:AA73" si="0">SUM(N2:N71)</f>
         <v>17</v>
       </c>
       <c r="O73">
-        <f>SUM(O2:O71)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P73">
-        <f>SUM(P2:P71)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="Q73">
-        <f>SUM(Q2:Q71)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="R73">
-        <f>SUM(R2:R71)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="S73">
-        <f>SUM(S2:S71)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="T73">
-        <f>SUM(T2:T71)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="U73">
-        <f>SUM(U2:U71)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="V73">
-        <f>SUM(V2:V71)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="W73">
-        <f>SUM(W2:W71)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="X73">
-        <f>SUM(X2:X71)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Y73">
-        <f>SUM(Y2:Y71)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Z73">
-        <f>SUM(Z2:Z71)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AA73">
-        <f>SUM(AA2:AA71)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AB73">
@@ -3049,15 +3055,15 @@
       </c>
       <c r="Q80" s="15">
         <f>SUM(B81,C81,D81,E81,F81,G81,H81,I81,J81,L81,M81,N81,O81,R81,T81,)</f>
-        <v>50.999999999999993</v>
+        <v>54.79999999999999</v>
       </c>
       <c r="R80" s="15">
         <f>SUM(B81,C81,D81,E81,F81,G81,H81,I81,J81,L81,M81,N81,O81,R81,T81,)</f>
-        <v>50.999999999999993</v>
+        <v>54.79999999999999</v>
       </c>
       <c r="S80" s="15">
         <f>SUM(B81,C81,D81,E81,F81,G81,H81,I81,J81,L81,M81,N81,O81,P81,Q81,R81,T81,U81)</f>
-        <v>54.999999999999993</v>
+        <v>58.79999999999999</v>
       </c>
       <c r="T80" s="15">
         <f>SUM(B81,F81,H81,)</f>
@@ -3069,11 +3075,11 @@
       </c>
       <c r="V80" s="15">
         <f>SUM(B81:U81,W81)</f>
-        <v>60.79999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="W80" s="15">
         <f>SUM(B81:J81,L81:U81)</f>
-        <v>55.999999999999993</v>
+        <v>59.79999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.35">
@@ -3120,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="O81" s="15">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="P81" s="15">
         <v>1</v>
@@ -3141,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="V81" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W81" s="15">
         <v>1</v>
@@ -3191,7 +3197,7 @@
         <v>177</v>
       </c>
       <c r="O82" s="15" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P82" s="15" t="s">
         <v>177</v>
@@ -3402,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="15">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="P85" s="15">
         <v>0</v>
@@ -3473,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" s="15">
         <v>0</v>
@@ -3494,35 +3500,97 @@
         <v>2</v>
       </c>
       <c r="V86" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W86" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
+      <c r="A87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="15">
+        <f>SUM(B80,B83,B85,B86)</f>
+        <v>7.6</v>
+      </c>
+      <c r="C87" s="15">
+        <f>SUM(,C83,C85,C80)</f>
+        <v>32</v>
+      </c>
+      <c r="D87" s="15">
+        <f>SUM(D80,D85)</f>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="E87" s="15">
+        <f>SUM(E80,E81)</f>
+        <v>31</v>
+      </c>
+      <c r="F87" s="15">
+        <f>SUM(F80,F81)</f>
+        <v>7.6</v>
+      </c>
+      <c r="G87" s="15">
+        <f>SUM(G80,G81)</f>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="H87" s="15">
+        <f>SUM(H81)</f>
+        <v>1</v>
+      </c>
+      <c r="I87" s="15">
+        <f>SUM(I80,I81)</f>
+        <v>31</v>
+      </c>
+      <c r="J87" s="15">
+        <f>SUM(J80,J81)</f>
+        <v>45.199999999999989</v>
+      </c>
+      <c r="K87" s="15">
+        <f>SUM(K80,K81)</f>
+        <v>60.79999999999999</v>
+      </c>
+      <c r="L87" s="15">
+        <f>SUM(L80,L81)</f>
+        <v>38.599999999999994</v>
+      </c>
+      <c r="M87" s="15">
+        <f>SUM(M80,M81)</f>
+        <v>42.399999999999991</v>
+      </c>
+      <c r="N87" s="15">
+        <f>SUM(N80,N81)</f>
+        <v>49.999999999999993</v>
+      </c>
+      <c r="O87" s="15">
+        <f>SUM(O80,O81)</f>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="P87" s="15">
+        <f>SUM(P80,R91)</f>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="Q87" s="15">
+        <v>55.8</v>
+      </c>
+      <c r="R87" s="15">
+        <v>55.8</v>
+      </c>
+      <c r="S87" s="15">
+        <v>59.8</v>
+      </c>
+      <c r="T87" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="U87" s="15">
+        <v>54</v>
+      </c>
+      <c r="V87" s="15">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="W87" s="15">
+        <v>60.8</v>
+      </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B88" s="15"/>
